--- a/工作日志/工作日志.xlsx
+++ b/工作日志/工作日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3500" yWindow="0" windowWidth="25600" windowHeight="14780" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14780" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>公交-路线规划</t>
   </si>
@@ -50,10 +50,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>图面换乘tips优化显示规则</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>换乘中我的位置显示优化，显示精确位置</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -75,6 +71,10 @@
   </si>
   <si>
     <t>实时公交优化（拼字中除去距离，增加站点）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图面换乘tips优化显示规则</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -623,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -640,13 +640,13 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1">
@@ -683,15 +683,9 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="35" customHeight="1">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1">
-        <v>640</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>7</v>
-      </c>
+      <c r="A5" s="4"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:4" ht="35" customHeight="1">
       <c r="A6" s="4" t="s">
@@ -701,7 +695,7 @@
         <v>650</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="35" customHeight="1">
@@ -712,7 +706,7 @@
         <v>650</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="13">
         <v>41760</v>
@@ -726,7 +720,7 @@
         <v>650</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="13">
         <v>41760</v>
@@ -734,19 +728,23 @@
     </row>
     <row r="9" spans="1:4" ht="35" customHeight="1">
       <c r="A9" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="8">
         <v>650</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="13">
         <v>41760</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="35" customHeight="1"/>
+    <row r="10" spans="1:4" ht="35" customHeight="1">
+      <c r="C10" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="11" spans="1:4" ht="35" customHeight="1"/>
     <row r="12" spans="1:4" ht="35" customHeight="1"/>
     <row r="13" spans="1:4" ht="35" customHeight="1"/>

--- a/工作日志/工作日志.xlsx
+++ b/工作日志/工作日志.xlsx
@@ -623,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
